--- a/src/main/resources/fish.xlsx
+++ b/src/main/resources/fish.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moyuyanli\Documents\Tencent Files\572490972\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IdeaProject\github\HuYanEconomy\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA9D338-8AC0-45BC-98F0-FA1F1E8A06A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6FCAFB-B7EF-4833-91B9-1AFF5DDC7F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,30 +1039,30 @@
   <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
     <col min="19" max="19" width="17" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1123,19 +1120,19 @@
         <v>25</v>
       </c>
       <c r="G2" s="6">
-        <f>E2</f>
+        <f t="shared" ref="G2:G33" si="0">E2</f>
         <v>25</v>
       </c>
       <c r="H2" s="6">
-        <f>(F2-E2)*0.25+E2</f>
+        <f t="shared" ref="H2:H33" si="1">(F2-E2)*0.25+E2</f>
         <v>25</v>
       </c>
       <c r="I2" s="6">
-        <f>(F2-E2)*0.5+E2</f>
+        <f t="shared" ref="I2:I33" si="2">(F2-E2)*0.5+E2</f>
         <v>25</v>
       </c>
       <c r="J2" s="6">
-        <f>F2</f>
+        <f t="shared" ref="J2:J33" si="3">F2</f>
         <v>25</v>
       </c>
       <c r="K2" s="6">
@@ -1153,7 +1150,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1173,19 +1170,19 @@
         <v>10</v>
       </c>
       <c r="G3" s="6">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H3" s="6">
-        <f>(F3-E3)*0.25+E3</f>
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="I3" s="6">
-        <f>(F3-E3)*0.5+E3</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="J3" s="6">
-        <f>F3</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K3" s="6">
@@ -1200,7 +1197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1220,19 +1217,19 @@
         <v>30</v>
       </c>
       <c r="G4" s="6">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H4" s="6">
-        <f>(F4-E4)*0.25+E4</f>
+        <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
       <c r="I4" s="6">
-        <f>(F4-E4)*0.5+E4</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J4" s="6">
-        <f>F4</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K4" s="6">
@@ -1247,7 +1244,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1267,19 +1264,19 @@
         <v>30</v>
       </c>
       <c r="G5" s="6">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H5" s="6">
-        <f>(F5-E5)*0.25+E5</f>
+        <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
       <c r="I5" s="6">
-        <f>(F5-E5)*0.5+E5</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J5" s="6">
-        <f>F5</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K5" s="6">
@@ -1294,7 +1291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1314,19 +1311,19 @@
         <v>30</v>
       </c>
       <c r="G6" s="6">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H6" s="6">
-        <f>(F6-E6)*0.25+E6</f>
+        <f t="shared" si="1"/>
         <v>11.25</v>
       </c>
       <c r="I6" s="6">
-        <f>(F6-E6)*0.5+E6</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="J6" s="6">
-        <f>F6</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K6" s="6">
@@ -1338,7 +1335,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1358,19 +1355,19 @@
         <v>30</v>
       </c>
       <c r="G7" s="6">
-        <f>E7</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H7" s="6">
-        <f>(F7-E7)*0.25+E7</f>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="I7" s="6">
-        <f>(F7-E7)*0.5+E7</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J7" s="6">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K7" s="6">
@@ -1382,7 +1379,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1402,19 +1399,19 @@
         <v>30</v>
       </c>
       <c r="G8" s="6">
-        <f>E8</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H8" s="6">
-        <f>(F8-E8)*0.25+E8</f>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="I8" s="6">
-        <f>(F8-E8)*0.5+E8</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J8" s="6">
-        <f>F8</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K8" s="6">
@@ -1428,7 +1425,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
@@ -1448,19 +1445,19 @@
         <v>43</v>
       </c>
       <c r="G9" s="6">
-        <f>E9</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H9" s="6">
-        <f>(F9-E9)*0.25+E9</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I9" s="6">
-        <f>(F9-E9)*0.5+E9</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J9" s="6">
-        <f>F9</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="K9" s="6">
@@ -1472,7 +1469,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1492,19 +1489,19 @@
         <v>33</v>
       </c>
       <c r="G10" s="6">
-        <f>E10</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10" s="6">
-        <f>(F10-E10)*0.25+E10</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="I10" s="6">
-        <f>(F10-E10)*0.5+E10</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J10" s="6">
-        <f>F10</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="K10" s="6">
@@ -1516,7 +1513,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>2</v>
       </c>
@@ -1536,19 +1533,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <f>E11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="6">
-        <f>(F11-E11)*0.25+E11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="6">
-        <f>(F11-E11)*0.5+E11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="6">
-        <f>F11</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K11" s="6">
@@ -1560,7 +1557,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -1580,19 +1577,19 @@
         <v>41</v>
       </c>
       <c r="G12" s="6">
-        <f>E12</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H12" s="6">
-        <f>(F12-E12)*0.25+E12</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I12" s="6">
-        <f>(F12-E12)*0.5+E12</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J12" s="6">
-        <f>F12</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="K12" s="6">
@@ -1604,7 +1601,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -1624,19 +1621,19 @@
         <v>10</v>
       </c>
       <c r="G13" s="6">
-        <f>E13</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H13" s="6">
-        <f>(F13-E13)*0.25+E13</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I13" s="6">
-        <f>(F13-E13)*0.5+E13</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J13" s="6">
-        <f>F13</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K13" s="6">
@@ -1648,7 +1645,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1668,19 +1665,19 @@
         <v>53</v>
       </c>
       <c r="G14" s="6">
-        <f>E14</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H14" s="6">
-        <f>(F14-E14)*0.25+E14</f>
+        <f t="shared" si="1"/>
         <v>28.25</v>
       </c>
       <c r="I14" s="6">
-        <f>(F14-E14)*0.5+E14</f>
+        <f t="shared" si="2"/>
         <v>36.5</v>
       </c>
       <c r="J14" s="6">
-        <f>F14</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="K14" s="6">
@@ -1692,7 +1689,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -1712,19 +1709,19 @@
         <v>120</v>
       </c>
       <c r="G15" s="6">
-        <f>E15</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H15" s="6">
-        <f>(F15-E15)*0.25+E15</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="I15" s="6">
-        <f>(F15-E15)*0.5+E15</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="J15" s="6">
-        <f>F15</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K15" s="6">
@@ -1736,7 +1733,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1756,19 +1753,19 @@
         <v>79</v>
       </c>
       <c r="G16" s="6">
-        <f>E16</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H16" s="6">
-        <f>(F16-E16)*0.25+E16</f>
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="I16" s="6">
-        <f>(F16-E16)*0.5+E16</f>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="J16" s="6">
-        <f>F16</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K16" s="6">
@@ -1777,10 +1774,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2</v>
       </c>
@@ -1800,19 +1797,19 @@
         <v>91</v>
       </c>
       <c r="G17" s="6">
-        <f>E17</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H17" s="6">
-        <f>(F17-E17)*0.25+E17</f>
+        <f t="shared" si="1"/>
         <v>41.5</v>
       </c>
       <c r="I17" s="6">
-        <f>(F17-E17)*0.5+E17</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="J17" s="6">
-        <f>F17</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="K17" s="6">
@@ -1821,10 +1818,10 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -1844,19 +1841,19 @@
         <v>130</v>
       </c>
       <c r="G18" s="6">
-        <f>E18</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="H18" s="6">
-        <f>(F18-E18)*0.25+E18</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="I18" s="6">
-        <f>(F18-E18)*0.5+E18</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="J18" s="6">
-        <f>F18</f>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K18" s="6">
@@ -1865,10 +1862,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -1888,19 +1885,19 @@
         <v>53</v>
       </c>
       <c r="G19" s="6">
-        <f>E19</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H19" s="6">
-        <f>(F19-E19)*0.25+E19</f>
+        <f t="shared" si="1"/>
         <v>19.25</v>
       </c>
       <c r="I19" s="6">
-        <f>(F19-E19)*0.5+E19</f>
+        <f t="shared" si="2"/>
         <v>30.5</v>
       </c>
       <c r="J19" s="6">
-        <f>F19</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="K19" s="6">
@@ -1909,10 +1906,10 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>3</v>
       </c>
@@ -1932,19 +1929,19 @@
         <v>66</v>
       </c>
       <c r="G20" s="6">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H20" s="6">
-        <f>(F20-E20)*0.25+E20</f>
+        <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
       <c r="I20" s="6">
-        <f>(F20-E20)*0.5+E20</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="J20" s="6">
-        <f>F20</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="K20" s="6">
@@ -1953,10 +1950,10 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>3</v>
       </c>
@@ -1976,19 +1973,19 @@
         <v>64</v>
       </c>
       <c r="G21" s="6">
-        <f>E21</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H21" s="6">
-        <f>(F21-E21)*0.25+E21</f>
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="I21" s="6">
-        <f>(F21-E21)*0.5+E21</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="J21" s="6">
-        <f>F21</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K21" s="6">
@@ -1997,10 +1994,10 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -2020,19 +2017,19 @@
         <v>64</v>
       </c>
       <c r="G22" s="6">
-        <f>E22</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H22" s="6">
-        <f>(F22-E22)*0.25+E22</f>
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="I22" s="6">
-        <f>(F22-E22)*0.5+E22</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="J22" s="6">
-        <f>F22</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K22" s="6">
@@ -2041,10 +2038,10 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O22"/>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -2064,19 +2061,19 @@
         <v>64</v>
       </c>
       <c r="G23" s="6">
-        <f>E23</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H23" s="6">
-        <f>(F23-E23)*0.25+E23</f>
+        <f t="shared" si="1"/>
         <v>34.75</v>
       </c>
       <c r="I23" s="6">
-        <f>(F23-E23)*0.5+E23</f>
+        <f t="shared" si="2"/>
         <v>44.5</v>
       </c>
       <c r="J23" s="6">
-        <f>F23</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K23" s="6">
@@ -2085,10 +2082,10 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O23"/>
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -2108,19 +2105,19 @@
         <v>58</v>
       </c>
       <c r="G24" s="6">
-        <f>E24</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H24" s="6">
-        <f>(F24-E24)*0.25+E24</f>
+        <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
       <c r="I24" s="6">
-        <f>(F24-E24)*0.5+E24</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="J24" s="6">
-        <f>F24</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="K24" s="6">
@@ -2129,10 +2126,10 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -2152,19 +2149,19 @@
         <v>60</v>
       </c>
       <c r="G25" s="6">
-        <f>E25</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H25" s="6">
-        <f>(F25-E25)*0.25+E25</f>
+        <f t="shared" si="1"/>
         <v>26.25</v>
       </c>
       <c r="I25" s="6">
-        <f>(F25-E25)*0.5+E25</f>
+        <f t="shared" si="2"/>
         <v>37.5</v>
       </c>
       <c r="J25" s="6">
-        <f>F25</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K25" s="6">
@@ -2173,10 +2170,10 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -2196,19 +2193,19 @@
         <v>66</v>
       </c>
       <c r="G26" s="6">
-        <f>E26</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H26" s="6">
-        <f>(F26-E26)*0.25+E26</f>
+        <f t="shared" si="1"/>
         <v>35.25</v>
       </c>
       <c r="I26" s="6">
-        <f>(F26-E26)*0.5+E26</f>
+        <f t="shared" si="2"/>
         <v>45.5</v>
       </c>
       <c r="J26" s="6">
-        <f>F26</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="K26" s="6">
@@ -2217,10 +2214,10 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>3</v>
       </c>
@@ -2240,19 +2237,19 @@
         <v>64</v>
       </c>
       <c r="G27" s="6">
-        <f>E27</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H27" s="6">
-        <f>(F27-E27)*0.25+E27</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="I27" s="6">
-        <f>(F27-E27)*0.5+E27</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="J27" s="6">
-        <f>F27</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="K27" s="6">
@@ -2261,10 +2258,10 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -2284,19 +2281,19 @@
         <v>79</v>
       </c>
       <c r="G28" s="6">
-        <f>E28</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H28" s="6">
-        <f>(F28-E28)*0.25+E28</f>
+        <f t="shared" si="1"/>
         <v>40.75</v>
       </c>
       <c r="I28" s="6">
-        <f>(F28-E28)*0.5+E28</f>
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="J28" s="6">
-        <f>F28</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K28" s="6">
@@ -2305,10 +2302,10 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -2328,19 +2325,19 @@
         <v>79</v>
       </c>
       <c r="G29" s="6">
-        <f>E29</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H29" s="6">
-        <f>(F29-E29)*0.25+E29</f>
+        <f t="shared" si="1"/>
         <v>40.75</v>
       </c>
       <c r="I29" s="6">
-        <f>(F29-E29)*0.5+E29</f>
+        <f t="shared" si="2"/>
         <v>53.5</v>
       </c>
       <c r="J29" s="6">
-        <f>F29</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K29" s="6">
@@ -2349,10 +2346,10 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>3</v>
       </c>
@@ -2372,19 +2369,19 @@
         <v>79</v>
       </c>
       <c r="G30" s="6">
-        <f>E30</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H30" s="6">
-        <f>(F30-E30)*0.25+E30</f>
+        <f t="shared" si="1"/>
         <v>42.25</v>
       </c>
       <c r="I30" s="6">
-        <f>(F30-E30)*0.5+E30</f>
+        <f t="shared" si="2"/>
         <v>54.5</v>
       </c>
       <c r="J30" s="6">
-        <f>F30</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="K30" s="6">
@@ -2393,10 +2390,10 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>3</v>
       </c>
@@ -2416,19 +2413,19 @@
         <v>86</v>
       </c>
       <c r="G31" s="6">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H31" s="6">
-        <f>(F31-E31)*0.25+E31</f>
+        <f t="shared" si="1"/>
         <v>40.25</v>
       </c>
       <c r="I31" s="6">
-        <f>(F31-E31)*0.5+E31</f>
+        <f t="shared" si="2"/>
         <v>55.5</v>
       </c>
       <c r="J31" s="6">
-        <f>F31</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="K31" s="6">
@@ -2437,10 +2434,10 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>3</v>
       </c>
@@ -2460,19 +2457,19 @@
         <v>124</v>
       </c>
       <c r="G32" s="6">
-        <f>E32</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="H32" s="6">
-        <f>(F32-E32)*0.25+E32</f>
+        <f t="shared" si="1"/>
         <v>69.25</v>
       </c>
       <c r="I32" s="6">
-        <f>(F32-E32)*0.5+E32</f>
+        <f t="shared" si="2"/>
         <v>87.5</v>
       </c>
       <c r="J32" s="6">
-        <f>F32</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="K32" s="6">
@@ -2481,10 +2478,10 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O32"/>
+      <c r="P32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>3</v>
       </c>
@@ -2504,19 +2501,19 @@
         <v>124</v>
       </c>
       <c r="G33" s="6">
-        <f>E33</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H33" s="6">
-        <f>(F33-E33)*0.25+E33</f>
+        <f t="shared" si="1"/>
         <v>53.5</v>
       </c>
       <c r="I33" s="6">
-        <f>(F33-E33)*0.5+E33</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J33" s="6">
-        <f>F33</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="K33" s="6">
@@ -2525,10 +2522,10 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O33"/>
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -2548,19 +2545,19 @@
         <v>104</v>
       </c>
       <c r="G34" s="6">
-        <f>E34</f>
+        <f t="shared" ref="G34:G65" si="4">E34</f>
         <v>51</v>
       </c>
       <c r="H34" s="6">
-        <f>(F34-E34)*0.25+E34</f>
+        <f t="shared" ref="H34:H65" si="5">(F34-E34)*0.25+E34</f>
         <v>64.25</v>
       </c>
       <c r="I34" s="6">
-        <f>(F34-E34)*0.5+E34</f>
+        <f t="shared" ref="I34:I65" si="6">(F34-E34)*0.5+E34</f>
         <v>77.5</v>
       </c>
       <c r="J34" s="6">
-        <f>F34</f>
+        <f t="shared" ref="J34:J65" si="7">F34</f>
         <v>104</v>
       </c>
       <c r="K34" s="6">
@@ -2569,10 +2566,10 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O34"/>
+      <c r="P34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>3</v>
       </c>
@@ -2592,19 +2589,19 @@
         <v>1</v>
       </c>
       <c r="G35" s="6">
-        <f>E35</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H35" s="6">
-        <f>(F35-E35)*0.25+E35</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I35" s="6">
-        <f>(F35-E35)*0.5+E35</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J35" s="6">
-        <f>F35</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K35" s="6">
@@ -2613,10 +2610,10 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>3</v>
       </c>
@@ -2636,19 +2633,19 @@
         <v>168</v>
       </c>
       <c r="G36" s="6">
-        <f>E36</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="H36" s="6">
-        <f>(F36-E36)*0.25+E36</f>
+        <f t="shared" si="5"/>
         <v>87.75</v>
       </c>
       <c r="I36" s="6">
-        <f>(F36-E36)*0.5+E36</f>
+        <f t="shared" si="6"/>
         <v>114.5</v>
       </c>
       <c r="J36" s="6">
-        <f>F36</f>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="K36" s="6">
@@ -2657,10 +2654,10 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>3</v>
       </c>
@@ -2680,19 +2677,19 @@
         <v>206</v>
       </c>
       <c r="G37" s="6">
-        <f>E37</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H37" s="6">
-        <f>(F37-E37)*0.25+E37</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="I37" s="6">
-        <f>(F37-E37)*0.5+E37</f>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="J37" s="6">
-        <f>F37</f>
+        <f t="shared" si="7"/>
         <v>206</v>
       </c>
       <c r="K37" s="6">
@@ -2701,10 +2698,10 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>4</v>
       </c>
@@ -2724,19 +2721,19 @@
         <v>184</v>
       </c>
       <c r="G38" s="6">
-        <f>E38</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H38" s="6">
-        <f>(F38-E38)*0.25+E38</f>
+        <f t="shared" si="5"/>
         <v>48.25</v>
       </c>
       <c r="I38" s="6">
-        <f>(F38-E38)*0.5+E38</f>
+        <f t="shared" si="6"/>
         <v>93.5</v>
       </c>
       <c r="J38" s="6">
-        <f>F38</f>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
       <c r="K38" s="6">
@@ -2747,10 +2744,10 @@
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>4</v>
       </c>
@@ -2770,19 +2767,19 @@
         <v>22</v>
       </c>
       <c r="G39" s="6">
-        <f>E39</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="H39" s="6">
-        <f>(F39-E39)*0.25+E39</f>
+        <f t="shared" si="5"/>
         <v>16.75</v>
       </c>
       <c r="I39" s="6">
-        <f>(F39-E39)*0.5+E39</f>
+        <f t="shared" si="6"/>
         <v>18.5</v>
       </c>
       <c r="J39" s="6">
-        <f>F39</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="K39" s="6">
@@ -2791,11 +2788,11 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
+      <c r="O39"/>
+      <c r="P39"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>4</v>
       </c>
@@ -2815,19 +2812,19 @@
         <v>25</v>
       </c>
       <c r="G40" s="6">
-        <f>E40</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H40" s="6">
-        <f>(F40-E40)*0.25+E40</f>
+        <f t="shared" si="5"/>
         <v>19.75</v>
       </c>
       <c r="I40" s="6">
-        <f>(F40-E40)*0.5+E40</f>
+        <f t="shared" si="6"/>
         <v>21.5</v>
       </c>
       <c r="J40" s="6">
-        <f>F40</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K40" s="6">
@@ -2836,11 +2833,11 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
+      <c r="O40"/>
+      <c r="P40"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -2860,19 +2857,19 @@
         <v>32</v>
       </c>
       <c r="G41" s="6">
-        <f>E41</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H41" s="6">
-        <f>(F41-E41)*0.25+E41</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="I41" s="6">
-        <f>(F41-E41)*0.5+E41</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J41" s="6">
-        <f>F41</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="K41" s="6">
@@ -2881,11 +2878,11 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
+      <c r="O41"/>
+      <c r="P41"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>4</v>
       </c>
@@ -2905,19 +2902,19 @@
         <v>25</v>
       </c>
       <c r="G42" s="6">
-        <f>E42</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="H42" s="6">
-        <f>(F42-E42)*0.25+E42</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I42" s="6">
-        <f>(F42-E42)*0.5+E42</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J42" s="6">
-        <f>F42</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K42" s="6">
@@ -2926,11 +2923,11 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
+      <c r="O42"/>
+      <c r="P42"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>4</v>
       </c>
@@ -2950,19 +2947,19 @@
         <v>64</v>
       </c>
       <c r="G43" s="6">
-        <f>E43</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="H43" s="6">
-        <f>(F43-E43)*0.25+E43</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="I43" s="6">
-        <f>(F43-E43)*0.5+E43</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="J43" s="6">
-        <f>F43</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="K43" s="6">
@@ -2971,11 +2968,11 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
+      <c r="O43"/>
+      <c r="P43"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>4</v>
       </c>
@@ -2995,19 +2992,19 @@
         <v>79</v>
       </c>
       <c r="G44" s="6">
-        <f>E44</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="H44" s="6">
-        <f>(F44-E44)*0.25+E44</f>
+        <f t="shared" si="5"/>
         <v>40.75</v>
       </c>
       <c r="I44" s="6">
-        <f>(F44-E44)*0.5+E44</f>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="J44" s="6">
-        <f>F44</f>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="K44" s="6">
@@ -3016,11 +3013,11 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
+      <c r="O44"/>
+      <c r="P44"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>4</v>
       </c>
@@ -3040,19 +3037,19 @@
         <v>104</v>
       </c>
       <c r="G45" s="6">
-        <f>E45</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H45" s="6">
-        <f>(F45-E45)*0.25+E45</f>
+        <f t="shared" si="5"/>
         <v>44.75</v>
       </c>
       <c r="I45" s="6">
-        <f>(F45-E45)*0.5+E45</f>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="J45" s="6">
-        <f>F45</f>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="K45" s="6">
@@ -3061,11 +3058,11 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
+      <c r="O45"/>
+      <c r="P45"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>4</v>
       </c>
@@ -3085,19 +3082,19 @@
         <v>84</v>
       </c>
       <c r="G46" s="6">
-        <f>E46</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="H46" s="6">
-        <f>(F46-E46)*0.25+E46</f>
+        <f t="shared" si="5"/>
         <v>66.75</v>
       </c>
       <c r="I46" s="6">
-        <f>(F46-E46)*0.5+E46</f>
+        <f t="shared" si="6"/>
         <v>72.5</v>
       </c>
       <c r="J46" s="6">
-        <f>F46</f>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="K46" s="6">
@@ -3106,11 +3103,11 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
+      <c r="O46"/>
+      <c r="P46"/>
       <c r="Q46" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>4</v>
       </c>
@@ -3130,19 +3127,19 @@
         <v>97</v>
       </c>
       <c r="G47" s="6">
-        <f>E47</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="H47" s="6">
-        <f>(F47-E47)*0.25+E47</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="I47" s="6">
-        <f>(F47-E47)*0.5+E47</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="J47" s="6">
-        <f>F47</f>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="K47" s="6">
@@ -3153,11 +3150,11 @@
       </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
+      <c r="O47"/>
+      <c r="P47"/>
       <c r="Q47" s="7"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>4</v>
       </c>
@@ -3177,19 +3174,19 @@
         <v>155</v>
       </c>
       <c r="G48" s="6">
-        <f>E48</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H48" s="6">
-        <f>(F48-E48)*0.25+E48</f>
+        <f t="shared" si="5"/>
         <v>61.25</v>
       </c>
       <c r="I48" s="6">
-        <f>(F48-E48)*0.5+E48</f>
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
       <c r="J48" s="6">
-        <f>F48</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="K48" s="6">
@@ -3198,11 +3195,11 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
+      <c r="O48"/>
+      <c r="P48"/>
       <c r="Q48" s="7"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>4</v>
       </c>
@@ -3222,19 +3219,19 @@
         <v>155</v>
       </c>
       <c r="G49" s="6">
-        <f>E49</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="H49" s="6">
-        <f>(F49-E49)*0.25+E49</f>
+        <f t="shared" si="5"/>
         <v>67.25</v>
       </c>
       <c r="I49" s="6">
-        <f>(F49-E49)*0.5+E49</f>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="J49" s="6">
-        <f>F49</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="K49" s="6">
@@ -3243,11 +3240,11 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
+      <c r="O49"/>
+      <c r="P49"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>4</v>
       </c>
@@ -3267,19 +3264,19 @@
         <v>130</v>
       </c>
       <c r="G50" s="6">
-        <f>E50</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="H50" s="6">
-        <f>(F50-E50)*0.25+E50</f>
+        <f t="shared" si="5"/>
         <v>89.5</v>
       </c>
       <c r="I50" s="6">
-        <f>(F50-E50)*0.5+E50</f>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="J50" s="6">
-        <f>F50</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="K50" s="6">
@@ -3288,11 +3285,11 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
+      <c r="O50"/>
+      <c r="P50"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>5</v>
       </c>
@@ -3312,19 +3309,19 @@
         <v>12</v>
       </c>
       <c r="G51" s="6">
-        <f>E51</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H51" s="6">
-        <f>(F51-E51)*0.25+E51</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="I51" s="6">
-        <f>(F51-E51)*0.5+E51</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="J51" s="6">
-        <f>F51</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K51" s="6">
@@ -3333,11 +3330,11 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
+      <c r="O51"/>
+      <c r="P51"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>5</v>
       </c>
@@ -3357,19 +3354,19 @@
         <v>52</v>
       </c>
       <c r="G52" s="6">
-        <f>E52</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="H52" s="6">
-        <f>(F52-E52)*0.25+E52</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I52" s="6">
-        <f>(F52-E52)*0.5+E52</f>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="J52" s="6">
-        <f>F52</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="K52" s="6">
@@ -3378,11 +3375,11 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
+      <c r="O52"/>
+      <c r="P52"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>5</v>
       </c>
@@ -3402,19 +3399,19 @@
         <v>13</v>
       </c>
       <c r="G53" s="6">
-        <f>E53</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H53" s="6">
-        <f>(F53-E53)*0.25+E53</f>
+        <f t="shared" si="5"/>
         <v>10.75</v>
       </c>
       <c r="I53" s="6">
-        <f>(F53-E53)*0.5+E53</f>
+        <f t="shared" si="6"/>
         <v>11.5</v>
       </c>
       <c r="J53" s="6">
-        <f>F53</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="K53" s="6">
@@ -3423,11 +3420,11 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
+      <c r="O53"/>
+      <c r="P53"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>5</v>
       </c>
@@ -3447,19 +3444,19 @@
         <v>53</v>
       </c>
       <c r="G54" s="6">
-        <f>E54</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="H54" s="6">
-        <f>(F54-E54)*0.25+E54</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="I54" s="6">
-        <f>(F54-E54)*0.5+E54</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="J54" s="6">
-        <f>F54</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="K54" s="6">
@@ -3468,11 +3465,11 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
+      <c r="O54"/>
+      <c r="P54"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>5</v>
       </c>
@@ -3492,19 +3489,19 @@
         <v>12</v>
       </c>
       <c r="G55" s="6">
-        <f>E55</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="H55" s="6">
-        <f>(F55-E55)*0.25+E55</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="I55" s="6">
-        <f>(F55-E55)*0.5+E55</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="J55" s="6">
-        <f>F55</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="K55" s="6">
@@ -3513,11 +3510,11 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+      <c r="O55"/>
+      <c r="P55"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>5</v>
       </c>
@@ -3537,19 +3534,19 @@
         <v>61</v>
       </c>
       <c r="G56" s="6">
-        <f>E56</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="H56" s="6">
-        <f>(F56-E56)*0.25+E56</f>
+        <f t="shared" si="5"/>
         <v>28.75</v>
       </c>
       <c r="I56" s="6">
-        <f>(F56-E56)*0.5+E56</f>
+        <f t="shared" si="6"/>
         <v>39.5</v>
       </c>
       <c r="J56" s="6">
-        <f>F56</f>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="K56" s="6">
@@ -3558,11 +3555,11 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
+      <c r="O56"/>
+      <c r="P56"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>5</v>
       </c>
@@ -3582,19 +3579,19 @@
         <v>84</v>
       </c>
       <c r="G57" s="6">
-        <f>E57</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H57" s="6">
-        <f>(F57-E57)*0.25+E57</f>
+        <f t="shared" si="5"/>
         <v>43.5</v>
       </c>
       <c r="I57" s="6">
-        <f>(F57-E57)*0.5+E57</f>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="J57" s="6">
-        <f>F57</f>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="K57" s="6">
@@ -3603,11 +3600,11 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
+      <c r="O57"/>
+      <c r="P57"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>5</v>
       </c>
@@ -3627,19 +3624,19 @@
         <v>124</v>
       </c>
       <c r="G58" s="6">
-        <f>E58</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H58" s="6">
-        <f>(F58-E58)*0.25+E58</f>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="I58" s="6">
-        <f>(F58-E58)*0.5+E58</f>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="J58" s="6">
-        <f>F58</f>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="K58" s="6">
@@ -3648,11 +3645,11 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>5</v>
       </c>
@@ -3672,19 +3669,19 @@
         <v>165</v>
       </c>
       <c r="G59" s="6">
-        <f>E59</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="H59" s="6">
-        <f>(F59-E59)*0.25+E59</f>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="I59" s="6">
-        <f>(F59-E59)*0.5+E59</f>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="J59" s="6">
-        <f>F59</f>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="K59" s="6">
@@ -3693,11 +3690,11 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="O59"/>
+      <c r="P59"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>6</v>
       </c>
@@ -3717,19 +3714,19 @@
         <v>94</v>
       </c>
       <c r="G60" s="6">
-        <f>E60</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H60" s="6">
-        <f>(F60-E60)*0.25+E60</f>
+        <f t="shared" si="5"/>
         <v>25.75</v>
       </c>
       <c r="I60" s="6">
-        <f>(F60-E60)*0.5+E60</f>
+        <f t="shared" si="6"/>
         <v>48.5</v>
       </c>
       <c r="J60" s="6">
-        <f>F60</f>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="K60" s="6">
@@ -3738,11 +3735,11 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="O60"/>
+      <c r="P60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>6</v>
       </c>
@@ -3762,19 +3759,19 @@
         <v>10</v>
       </c>
       <c r="G61" s="6">
-        <f>E61</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="H61" s="6">
-        <f>(F61-E61)*0.25+E61</f>
+        <f t="shared" si="5"/>
         <v>6.25</v>
       </c>
       <c r="I61" s="6">
-        <f>(F61-E61)*0.5+E61</f>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="J61" s="6">
-        <f>F61</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="K61" s="6">
@@ -3785,11 +3782,11 @@
       </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
+      <c r="O61"/>
+      <c r="P61"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>6</v>
       </c>
@@ -3809,19 +3806,19 @@
         <v>155</v>
       </c>
       <c r="G62" s="6">
-        <f>E62</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H62" s="6">
-        <f>(F62-E62)*0.25+E62</f>
+        <f t="shared" si="5"/>
         <v>61.25</v>
       </c>
       <c r="I62" s="6">
-        <f>(F62-E62)*0.5+E62</f>
+        <f t="shared" si="6"/>
         <v>92.5</v>
       </c>
       <c r="J62" s="6">
-        <f>F62</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="K62" s="6">
@@ -3830,11 +3827,11 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
+      <c r="O62"/>
+      <c r="P62"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
         <v>6</v>
       </c>
@@ -3854,19 +3851,19 @@
         <v>185</v>
       </c>
       <c r="G63" s="6">
-        <f>E63</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H63" s="6">
-        <f>(F63-E63)*0.25+E63</f>
+        <f t="shared" si="5"/>
         <v>68.75</v>
       </c>
       <c r="I63" s="6">
-        <f>(F63-E63)*0.5+E63</f>
+        <f t="shared" si="6"/>
         <v>107.5</v>
       </c>
       <c r="J63" s="6">
-        <f>F63</f>
+        <f t="shared" si="7"/>
         <v>185</v>
       </c>
       <c r="K63" s="6">
@@ -3875,11 +3872,11 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
+      <c r="O63"/>
+      <c r="P63"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
         <v>6</v>
       </c>
@@ -3899,19 +3896,19 @@
         <v>85</v>
       </c>
       <c r="G64" s="6">
-        <f>E64</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H64" s="6">
-        <f>(F64-E64)*0.25+E64</f>
+        <f t="shared" si="5"/>
         <v>43.75</v>
       </c>
       <c r="I64" s="6">
-        <f>(F64-E64)*0.5+E64</f>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="J64" s="6">
-        <f>F64</f>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="K64" s="6">
@@ -3920,11 +3917,11 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
+      <c r="O64"/>
+      <c r="P64"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>6</v>
       </c>
@@ -3944,19 +3941,19 @@
         <v>80</v>
       </c>
       <c r="G65" s="6">
-        <f>E65</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H65" s="6">
-        <f>(F65-E65)*0.25+E65</f>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="I65" s="6">
-        <f>(F65-E65)*0.5+E65</f>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="J65" s="6">
-        <f>F65</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="K65" s="6">
@@ -3967,11 +3964,11 @@
       </c>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
+      <c r="O65"/>
+      <c r="P65"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>6</v>
       </c>
@@ -3991,19 +3988,19 @@
         <v>90</v>
       </c>
       <c r="G66" s="6">
-        <f>E66</f>
+        <f t="shared" ref="G66:G88" si="8">E66</f>
         <v>50</v>
       </c>
       <c r="H66" s="6">
-        <f>(F66-E66)*0.25+E66</f>
+        <f t="shared" ref="H66:H88" si="9">(F66-E66)*0.25+E66</f>
         <v>60</v>
       </c>
       <c r="I66" s="6">
-        <f>(F66-E66)*0.5+E66</f>
+        <f t="shared" ref="I66:I88" si="10">(F66-E66)*0.5+E66</f>
         <v>70</v>
       </c>
       <c r="J66" s="6">
-        <f>F66</f>
+        <f t="shared" ref="J66:J88" si="11">F66</f>
         <v>90</v>
       </c>
       <c r="K66" s="6">
@@ -4014,11 +4011,11 @@
       </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
+      <c r="O66"/>
+      <c r="P66"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>6</v>
       </c>
@@ -4038,19 +4035,19 @@
         <v>120</v>
       </c>
       <c r="G67" s="6">
-        <f>E67</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="H67" s="6">
-        <f>(F67-E67)*0.25+E67</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="I67" s="6">
-        <f>(F67-E67)*0.5+E67</f>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="J67" s="6">
-        <f>F67</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="K67" s="6">
@@ -4061,11 +4058,11 @@
       </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
+      <c r="O67"/>
+      <c r="P67"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
         <v>7</v>
       </c>
@@ -4085,19 +4082,19 @@
         <v>64</v>
       </c>
       <c r="G68" s="6">
-        <f>E68</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H68" s="6">
-        <f>(F68-E68)*0.25+E68</f>
+        <f t="shared" si="9"/>
         <v>38.5</v>
       </c>
       <c r="I68" s="6">
-        <f>(F68-E68)*0.5+E68</f>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="J68" s="6">
-        <f>F68</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K68" s="6">
@@ -4106,11 +4103,11 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
+      <c r="O68"/>
+      <c r="P68"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
         <v>7</v>
       </c>
@@ -4130,19 +4127,19 @@
         <v>64</v>
       </c>
       <c r="G69" s="6">
-        <f>E69</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H69" s="6">
-        <f>(F69-E69)*0.25+E69</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I69" s="6">
-        <f>(F69-E69)*0.5+E69</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="J69" s="6">
-        <f>F69</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K69" s="6">
@@ -4151,10 +4148,10 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
         <v>7</v>
       </c>
@@ -4174,19 +4171,19 @@
         <v>94</v>
       </c>
       <c r="G70" s="6">
-        <f>E70</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H70" s="6">
-        <f>(F70-E70)*0.25+E70</f>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="I70" s="6">
-        <f>(F70-E70)*0.5+E70</f>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="J70" s="6">
-        <f>F70</f>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="K70" s="6">
@@ -4195,10 +4192,10 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
         <v>8</v>
       </c>
@@ -4218,19 +4215,19 @@
         <v>35</v>
       </c>
       <c r="G71" s="6">
-        <f>E71</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H71" s="6">
-        <f>(F71-E71)*0.25+E71</f>
+        <f t="shared" si="9"/>
         <v>12.5</v>
       </c>
       <c r="I71" s="6">
-        <f>(F71-E71)*0.5+E71</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J71" s="6">
-        <f>F71</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="K71" s="6">
@@ -4239,10 +4236,10 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
         <v>8</v>
       </c>
@@ -4262,19 +4259,19 @@
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f>E72</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="H72" s="6">
-        <f>(F72-E72)*0.25+E72</f>
+        <f t="shared" si="9"/>
         <v>15.5</v>
       </c>
       <c r="I72" s="6">
-        <f>(F72-E72)*0.5+E72</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="J72" s="6">
-        <f>F72</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="K72" s="6">
@@ -4285,10 +4282,10 @@
       </c>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>8</v>
       </c>
@@ -4308,19 +4305,19 @@
         <v>65</v>
       </c>
       <c r="G73" s="6">
-        <f>E73</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="H73" s="6">
-        <f>(F73-E73)*0.25+E73</f>
+        <f t="shared" si="9"/>
         <v>43.25</v>
       </c>
       <c r="I73" s="6">
-        <f>(F73-E73)*0.5+E73</f>
+        <f t="shared" si="10"/>
         <v>50.5</v>
       </c>
       <c r="J73" s="6">
-        <f>F73</f>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="K73" s="6">
@@ -4329,10 +4326,10 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <v>8</v>
       </c>
@@ -4352,19 +4349,19 @@
         <v>60</v>
       </c>
       <c r="G74" s="6">
-        <f>E74</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="H74" s="6">
-        <f>(F74-E74)*0.25+E74</f>
+        <f t="shared" si="9"/>
         <v>47.25</v>
       </c>
       <c r="I74" s="6">
-        <f>(F74-E74)*0.5+E74</f>
+        <f t="shared" si="10"/>
         <v>51.5</v>
       </c>
       <c r="J74" s="6">
-        <f>F74</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="K74" s="6">
@@ -4373,10 +4370,10 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
         <v>8</v>
       </c>
@@ -4396,19 +4393,19 @@
         <v>100</v>
       </c>
       <c r="G75" s="6">
-        <f>E75</f>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="H75" s="6">
-        <f>(F75-E75)*0.25+E75</f>
+        <f t="shared" si="9"/>
         <v>88.75</v>
       </c>
       <c r="I75" s="6">
-        <f>(F75-E75)*0.5+E75</f>
+        <f t="shared" si="10"/>
         <v>92.5</v>
       </c>
       <c r="J75" s="6">
-        <f>F75</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="K75" s="6">
@@ -4419,10 +4416,10 @@
       </c>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="6">
         <v>9</v>
       </c>
@@ -4442,19 +4439,19 @@
         <v>10</v>
       </c>
       <c r="G76" s="6">
-        <f>E76</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H76" s="6">
-        <f>(F76-E76)*0.25+E76</f>
+        <f t="shared" si="9"/>
         <v>6.25</v>
       </c>
       <c r="I76" s="6">
-        <f>(F76-E76)*0.5+E76</f>
+        <f t="shared" si="10"/>
         <v>7.5</v>
       </c>
       <c r="J76" s="6">
-        <f>F76</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="K76" s="6">
@@ -4463,10 +4460,10 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="6">
         <v>9</v>
       </c>
@@ -4486,19 +4483,19 @@
         <v>23</v>
       </c>
       <c r="G77" s="6">
-        <f>E77</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H77" s="6">
-        <f>(F77-E77)*0.25+E77</f>
+        <f t="shared" si="9"/>
         <v>19.25</v>
       </c>
       <c r="I77" s="6">
-        <f>(F77-E77)*0.5+E77</f>
+        <f t="shared" si="10"/>
         <v>20.5</v>
       </c>
       <c r="J77" s="6">
-        <f>F77</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="K77" s="6">
@@ -4507,10 +4504,10 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>9</v>
       </c>
@@ -4530,19 +4527,19 @@
         <v>64</v>
       </c>
       <c r="G78" s="6">
-        <f>E78</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H78" s="6">
-        <f>(F78-E78)*0.25+E78</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I78" s="6">
-        <f>(F78-E78)*0.5+E78</f>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="J78" s="6">
-        <f>F78</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="K78" s="6">
@@ -4551,10 +4548,10 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="6">
         <v>9</v>
       </c>
@@ -4574,19 +4571,19 @@
         <v>90</v>
       </c>
       <c r="G79" s="6">
-        <f>E79</f>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="H79" s="6">
-        <f>(F79-E79)*0.25+E79</f>
+        <f t="shared" si="9"/>
         <v>81.75</v>
       </c>
       <c r="I79" s="6">
-        <f>(F79-E79)*0.5+E79</f>
+        <f t="shared" si="10"/>
         <v>84.5</v>
       </c>
       <c r="J79" s="6">
-        <f>F79</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="K79" s="6">
@@ -4595,10 +4592,10 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="6">
         <v>9</v>
       </c>
@@ -4618,19 +4615,19 @@
         <v>95</v>
       </c>
       <c r="G80" s="6">
-        <f>E80</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="H80" s="6">
-        <f>(F80-E80)*0.25+E80</f>
+        <f t="shared" si="9"/>
         <v>91.25</v>
       </c>
       <c r="I80" s="6">
-        <f>(F80-E80)*0.5+E80</f>
+        <f t="shared" si="10"/>
         <v>92.5</v>
       </c>
       <c r="J80" s="6">
-        <f>F80</f>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K80" s="6">
@@ -4641,10 +4638,10 @@
       </c>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="6">
         <v>10</v>
       </c>
@@ -4664,19 +4661,19 @@
         <v>15</v>
       </c>
       <c r="G81" s="6">
-        <f>E81</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H81" s="6">
-        <f>(F81-E81)*0.25+E81</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I81" s="6">
-        <f>(F81-E81)*0.5+E81</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="J81" s="6">
-        <f>F81</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="K81" s="6">
@@ -4685,10 +4682,10 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="6">
         <v>10</v>
       </c>
@@ -4708,19 +4705,19 @@
         <v>20</v>
       </c>
       <c r="G82" s="6">
-        <f>E82</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H82" s="6">
-        <f>(F82-E82)*0.25+E82</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I82" s="6">
-        <f>(F82-E82)*0.5+E82</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J82" s="6">
-        <f>F82</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="K82" s="6">
@@ -4729,10 +4726,10 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="6">
         <v>10</v>
       </c>
@@ -4752,19 +4749,19 @@
         <v>10</v>
       </c>
       <c r="G83" s="6">
-        <f>E83</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H83" s="6">
-        <f>(F83-E83)*0.25+E83</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I83" s="6">
-        <f>(F83-E83)*0.5+E83</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J83" s="6">
-        <f>F83</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="K83" s="6">
@@ -4775,10 +4772,10 @@
       </c>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="6">
         <v>10</v>
       </c>
@@ -4798,19 +4795,19 @@
         <v>39</v>
       </c>
       <c r="G84" s="6">
-        <f>E84</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="H84" s="6">
-        <f>(F84-E84)*0.25+E84</f>
+        <f t="shared" si="9"/>
         <v>22.5</v>
       </c>
       <c r="I84" s="6">
-        <f>(F84-E84)*0.5+E84</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="J84" s="6">
-        <f>F84</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="K84" s="6">
@@ -4819,10 +4816,10 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
         <v>10</v>
       </c>
@@ -4842,19 +4839,19 @@
         <v>30</v>
       </c>
       <c r="G85" s="6">
-        <f>E85</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H85" s="6">
-        <f>(F85-E85)*0.25+E85</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I85" s="6">
-        <f>(F85-E85)*0.5+E85</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="J85" s="6">
-        <f>F85</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="K85" s="6">
@@ -4865,10 +4862,10 @@
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="6">
         <v>10</v>
       </c>
@@ -4888,19 +4885,19 @@
         <v>99</v>
       </c>
       <c r="G86" s="6">
-        <f>E86</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="H86" s="6">
-        <f>(F86-E86)*0.25+E86</f>
+        <f t="shared" si="9"/>
         <v>74.25</v>
       </c>
       <c r="I86" s="6">
-        <f>(F86-E86)*0.5+E86</f>
+        <f t="shared" si="10"/>
         <v>82.5</v>
       </c>
       <c r="J86" s="6">
-        <f>F86</f>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
       <c r="K86" s="6">
@@ -4909,10 +4906,10 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="6">
         <v>10</v>
       </c>
@@ -4932,19 +4929,19 @@
         <v>40</v>
       </c>
       <c r="G87" s="6">
-        <f>E87</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H87" s="6">
-        <f>(F87-E87)*0.25+E87</f>
+        <f t="shared" si="9"/>
         <v>32.5</v>
       </c>
       <c r="I87" s="6">
-        <f>(F87-E87)*0.5+E87</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="J87" s="6">
-        <f>F87</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="K87" s="6">
@@ -4955,10 +4952,10 @@
       </c>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="6">
         <v>11</v>
       </c>
@@ -4978,19 +4975,19 @@
         <v>90</v>
       </c>
       <c r="G88" s="6">
-        <f>E88</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="H88" s="6">
-        <f>(F88-E88)*0.25+E88</f>
+        <f t="shared" si="9"/>
         <v>78.75</v>
       </c>
       <c r="I88" s="6">
-        <f>(F88-E88)*0.5+E88</f>
+        <f t="shared" si="10"/>
         <v>82.5</v>
       </c>
       <c r="J88" s="6">
-        <f>F88</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="K88" s="6">
@@ -5001,8 +4998,8 @@
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
+      <c r="O88"/>
+      <c r="P88"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L88">
